--- a/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
+++ b/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.64</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.20</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>79.62</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.35</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
+++ b/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -669,4 +670,172 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001744</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安进取回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
+++ b/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -838,4 +839,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
+++ b/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -847,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -858,17 +859,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -878,14 +899,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -894,14 +937,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.22</v>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -910,13 +975,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
+++ b/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安安信消费混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>24.43</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8404</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519909</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安安顺灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3160</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -637,36 +605,264 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519909</t>
+          <t>001042</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安安顺灵活配置混合</t>
+          <t>华夏领先股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>13.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.62</t>
+          <t>93.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2225</t>
+          <t>0.3567</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +1044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,7 +1065,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -899,264 +1095,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001042</t>
+          <t>519909</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏领先股票</t>
+          <t>华安安顺灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.48</t>
+          <t>79.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3567</t>
+          <t>0.2225</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001075</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈转型动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2190</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011269</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中银证券优势制造股票型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.10</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1495</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>200010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城双动力混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0511</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011270</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银证券优势制造股票型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004913</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>44.28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0017</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004914</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中银证券聚瑞混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>44.28</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1170,96 +1138,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8404</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.16</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
+++ b/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.79</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -549,6 +566,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -870,7 +981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1038,7 +1149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1132,7 +1243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
+++ b/数据整理/stocks/A股/上证主板/605068-明新旭腾.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.16</v>
       </c>
     </row>
@@ -566,6 +583,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014647</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014648</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1761</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信澳新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信澳恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>35.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -659,7 +1188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -981,7 +1510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +1678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1243,7 +1772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
